--- a/Excel/TI/Mon_TI_2024_04_04.xlsx
+++ b/Excel/TI/Mon_TI_2024_04_04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,80 +628,90 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Joel Embiid</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>32.6</v>
+        <v>54.2</v>
       </c>
       <c r="G2" t="n">
-        <v>35.1</v>
+        <v>62.2</v>
       </c>
       <c r="H2" t="n">
-        <v>36.5</v>
+        <v>60.6</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
       <c r="N2" t="n">
-        <v>32</v>
-      </c>
-      <c r="O2" t="n">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>30</v>
-      </c>
-      <c r="R2" t="n">
-        <v>29</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.4</v>
+        <v>-4.5</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -741,7 +751,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -751,17 +761,17 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -771,19 +781,19 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ORL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -794,43 +804,45 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>34.6</v>
+        <v>28.2</v>
       </c>
       <c r="G3" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="H3" t="n">
-        <v>37.4</v>
+        <v>36.3</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>6</v>
-      </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -838,7 +850,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -849,51 +861,57 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>45</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD3" t="n">
-        <v>20</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -903,7 +921,7 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -913,7 +931,7 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
@@ -968,17 +986,19 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
         <v>7</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>42</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>41</v>
-      </c>
-      <c r="R4" t="n">
-        <v>37</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1068,12 +1088,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1082,45 +1102,55 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>36.6</v>
       </c>
       <c r="G5" t="n">
-        <v>28.9</v>
+        <v>31.4</v>
       </c>
       <c r="H5" t="n">
-        <v>24.8</v>
+        <v>29.4</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
-      </c>
-      <c r="P5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>20</v>
-      </c>
-      <c r="R5" t="n">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1128,10 +1158,14 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+        <v>-1.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9</v>
+      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>@</t>
@@ -1139,51 +1173,55 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v>10</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1193,29 +1231,29 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
           <t>MIN</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Terry Rozier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1226,43 +1264,43 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>23.2</v>
+        <v>31.6</v>
       </c>
       <c r="G6" t="n">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="H6" t="n">
-        <v>30.6</v>
+        <v>28.4</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O6" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="P6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1270,7 +1308,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-2.2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1281,16 +1319,16 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1298,34 +1336,34 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1335,7 +1373,7 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -1345,66 +1383,70 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>25.9</v>
+        <v>27.3</v>
       </c>
       <c r="H7" t="n">
-        <v>33.6</v>
+        <v>27.8</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="O7" t="n">
+        <v>41</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="n">
         <v>27</v>
       </c>
-      <c r="P7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>19</v>
-      </c>
       <c r="R7" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1412,7 +1454,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1423,24 +1465,26 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v>37</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1459,155 +1503,155 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>29.2</v>
+        <v>30.4</v>
       </c>
       <c r="G8" t="n">
-        <v>25.7</v>
+        <v>27.2</v>
       </c>
       <c r="H8" t="n">
-        <v>27.8</v>
+        <v>18.9</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16</v>
+      </c>
+      <c r="P8" t="n">
         <v>41</v>
       </c>
-      <c r="O8" t="n">
-        <v>31</v>
-      </c>
-      <c r="P8" t="n">
-        <v>27</v>
-      </c>
       <c r="Q8" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="R8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
           <t>@</t>
@@ -1615,7 +1659,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1625,95 +1669,95 @@
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>24.2</v>
       </c>
       <c r="G9" t="n">
-        <v>21.5</v>
+        <v>27.1</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>24.8</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
         <v>7</v>
       </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
       <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O9" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="n">
         <v>23</v>
       </c>
-      <c r="Q9" t="n">
-        <v>52</v>
-      </c>
       <c r="R9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-0.6</v>
+        <v>-1.2</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1722,36 +1766,32 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1761,17 +1801,17 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -1781,7 +1821,7 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
     </row>
@@ -1793,54 +1833,54 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>22.8</v>
+        <v>25.6</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>26.3</v>
       </c>
       <c r="H10" t="n">
-        <v>18.2</v>
+        <v>33.4</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P10" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1848,7 +1888,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1868,7 +1908,7 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -1876,7 +1916,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1932,12 +1972,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1946,102 +1986,112 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F11" t="n">
-        <v>14.4</v>
+        <v>33.4</v>
       </c>
       <c r="G11" t="n">
-        <v>11.7</v>
+        <v>24.7</v>
       </c>
       <c r="H11" t="n">
-        <v>18.5</v>
+        <v>21.4</v>
       </c>
       <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>34</v>
+      </c>
+      <c r="R11" t="n">
         <v>23</v>
       </c>
-      <c r="O11" t="n">
-        <v>9</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>24</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
+        <v>-2.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12</v>
+      </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
           <t>DEN</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2049,127 +2099,105 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trae Young</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>25.4</v>
+        <v>20.4</v>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>24.2</v>
       </c>
       <c r="H12" t="n">
-        <v>37.6</v>
+        <v>30.3</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>23</v>
+      </c>
+      <c r="P12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>31</v>
+      </c>
+      <c r="R12" t="n">
+        <v>24</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2178,36 +2206,32 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
+        <v>27</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2217,132 +2241,124 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Donte DiVincenzo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>24.8</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>29.9</v>
+        <v>23.7</v>
       </c>
       <c r="H13" t="n">
-        <v>24.6</v>
+        <v>19.3</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>7</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>40</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>31</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>-0.4</v>
+        <v>-0.9</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v>8</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2361,17 +2377,17 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2381,7 +2397,7 @@
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -2391,163 +2407,921 @@
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Andrew Wiggins</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>28.4</v>
+        <v>24.8</v>
       </c>
       <c r="G14" t="n">
-        <v>22.3</v>
+        <v>20.5</v>
       </c>
       <c r="H14" t="n">
-        <v>26.8</v>
+        <v>18.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>31</v>
+      </c>
+      <c r="R14" t="n">
+        <v>27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>8</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>39</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>30</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tyler Herro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z14" t="n">
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
         <v>26</v>
       </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
         <v>20</v>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>HOU</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
         <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
         <is>
           <t>ATL</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
         <is>
           <t>DAL</t>
         </is>
